--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46972.28810387982</v>
+        <v>45084.70658747737</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13106959.94437522</v>
+        <v>13106959.94437523</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>231.1936423255245</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>389.6884603131478</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.54548707014979</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12.84584032841726</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>350.6237397602806</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>241.7559072257411</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>4.553842565068688</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>219.4182428509135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>263.4132536974681</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>152.6509495310449</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>54.47555601903321</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274103</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.6519788371578</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>49.38162151975428</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>170.580969395229</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>187.8326399421084</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274165</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750034</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>200.5957621122957</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>215.6214853475425</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>31.40528887001947</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151928</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002186</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533806</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700711</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965567</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801248</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437456</v>
       </c>
       <c r="G31" t="n">
-        <v>98.73491851628673</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897944</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>21.65873182143179</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>54.76109577523609</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550466</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298326</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700207</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952713</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080343</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604805</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692897</v>
+        <v>78.30207251692943</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.991915879943</v>
+        <v>1485.384143294141</v>
       </c>
       <c r="C2" t="n">
-        <v>1550.991915879943</v>
+        <v>1116.421626353729</v>
       </c>
       <c r="D2" t="n">
-        <v>1192.726217273193</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1192.726217273193</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X2" t="n">
-        <v>1937.591755944065</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y2" t="n">
-        <v>1937.591755944065</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>259.1560728187101</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1606.02060534945</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1237.058088409038</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.097842756629</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>1992.620445413572</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1249.712458167645</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1249.712458167645</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>891.4467595608942</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>891.4467595608942</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.372765927088</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.342874726952</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2339.279987383381</v>
+        <v>2366.08620367465</v>
       </c>
       <c r="W8" t="n">
-        <v>1986.511332113267</v>
+        <v>2013.317548404536</v>
       </c>
       <c r="X8" t="n">
-        <v>1613.045573852188</v>
+        <v>1639.851790143456</v>
       </c>
       <c r="Y8" t="n">
-        <v>1222.906241876376</v>
+        <v>1249.712458167645</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571345</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942396</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124023</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>108.968795981004</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5018,73 +5018,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113633</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777666</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>2037.143944996363</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799343</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471171</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347406</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609643</v>
+        <v>986.0022165609665</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550774</v>
+        <v>731.3177283550797</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181167</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181167</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="Y13" t="n">
-        <v>221.1079791745866</v>
+        <v>441.9005583181189</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1326.612261067772</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1037.48362228133</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V16" t="n">
-        <v>782.7991340754431</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>493.3819640384826</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>265.3924131404652</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5750,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5783,13 +5783,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011508</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>496.6650364395584</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>496.6650364395584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,28 +5987,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.3642008327095</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>576.3642008327095</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>426.2475614203737</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>426.2475614203737</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>279.3576139224633</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>279.3576139224633</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>128.9396054704065</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473456</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609665</v>
+        <v>869.3083006011504</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609665</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>986.0022165609665</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>758.0126656629492</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.0126656629492</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6233,19 +6233,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557903</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011504</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6476,13 +6476,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542177</v>
+        <v>604.5641438163722</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542177</v>
+        <v>491.3888261698356</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542177</v>
+        <v>397.0330520388703</v>
       </c>
       <c r="E31" t="n">
-        <v>347.3802016531956</v>
+        <v>304.8808237378476</v>
       </c>
       <c r="F31" t="n">
-        <v>347.3802016531956</v>
+        <v>213.7517415213076</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>213.7517415213076</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>119.094598350621</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864669</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933494</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667498</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962038</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899268</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.65268009619</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167066</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356661995</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737479</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>902.6804289818883</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365246</v>
+        <v>730.4517433652414</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030867</v>
+        <v>730.4517433652414</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,22 +6871,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025263</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6944,19 +6944,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,19 +7017,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,19 +7418,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,22 +7491,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,37 +7819,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093307</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,28 +8769,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>87.16935584025424</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>96.03744927814625</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,10 +11142,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>180.0237016735865</v>
       </c>
       <c r="M42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.18000134477953</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>99.23385149845808</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.419245464271</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>50.96659166316027</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>64.30500338171956</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338582</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>85.64159028628168</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>2.963168004552301</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I25" t="n">
-        <v>79.01395659425251</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338452</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338457</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.5553933185338</v>
+        <v>111.2903118348209</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>33.55725701428349</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235381</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.146372179473451e-13</v>
+        <v>-9.379164112033322e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>287364.6194524994</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524995</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524994</v>
@@ -26326,34 +26326,34 @@
         <v>273720.3418163963</v>
       </c>
       <c r="G2" t="n">
-        <v>273720.3418163964</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="H2" t="n">
+        <v>273720.3418163962</v>
+      </c>
+      <c r="I2" t="n">
         <v>273720.3418163963</v>
-      </c>
-      <c r="I2" t="n">
-        <v>273720.3418163964</v>
       </c>
       <c r="J2" t="n">
         <v>273720.3418163963</v>
       </c>
       <c r="K2" t="n">
-        <v>284775.4961416893</v>
+        <v>284775.4961416894</v>
       </c>
       <c r="L2" t="n">
+        <v>287364.6194524993</v>
+      </c>
+      <c r="M2" t="n">
+        <v>287364.6194524991</v>
+      </c>
+      <c r="N2" t="n">
         <v>287364.619452499</v>
       </c>
-      <c r="M2" t="n">
-        <v>287364.6194524993</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>287364.6194524991</v>
       </c>
-      <c r="O2" t="n">
-        <v>287364.6194524993</v>
-      </c>
       <c r="P2" t="n">
-        <v>287364.6194524988</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.6053028453</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086719</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284517</v>
       </c>
     </row>
     <row r="4">
@@ -26424,34 +26424,34 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007458</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007442</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007451</v>
+        <v>7916.731656007456</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007466</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007491</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020389</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
@@ -26473,28 +26473,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-533379.3865413753</v>
       </c>
       <c r="C6" t="n">
-        <v>56588.49267316912</v>
+        <v>56588.49267316918</v>
       </c>
       <c r="D6" t="n">
-        <v>56588.49267316906</v>
+        <v>56588.4926731693</v>
       </c>
       <c r="E6" t="n">
-        <v>-351343.7522652241</v>
+        <v>-351441.2113911969</v>
       </c>
       <c r="F6" t="n">
-        <v>173816.2842116723</v>
+        <v>173718.8250857</v>
       </c>
       <c r="G6" t="n">
-        <v>173816.2842116723</v>
+        <v>173718.8250857</v>
       </c>
       <c r="H6" t="n">
-        <v>173816.2842116722</v>
+        <v>173718.8250856999</v>
       </c>
       <c r="I6" t="n">
-        <v>173816.2842116723</v>
+        <v>173718.8250856999</v>
       </c>
       <c r="J6" t="n">
-        <v>-2606.934980920734</v>
+        <v>-2704.394106892913</v>
       </c>
       <c r="K6" t="n">
-        <v>117903.3281384168</v>
+        <v>117884.834400483</v>
       </c>
       <c r="L6" t="n">
-        <v>148971.0879342788</v>
+        <v>148971.0879342787</v>
       </c>
       <c r="M6" t="n">
-        <v>24512.9795013088</v>
+        <v>24512.97950130848</v>
       </c>
       <c r="N6" t="n">
+        <v>159313.9947351457</v>
+      </c>
+      <c r="O6" t="n">
         <v>159313.9947351458</v>
       </c>
-      <c r="O6" t="n">
-        <v>159313.9947351459</v>
-      </c>
       <c r="P6" t="n">
-        <v>115151.3894322998</v>
+        <v>115151.3894323007</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,40 +26741,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855662</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108399</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855665</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855662</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>123.4893992951585</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>17.18758542856364</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.202682480856311e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.2864931117875</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>132.575207694514</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>4.059301860402343</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>107.4850614916719</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>142.1113494150892</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>6.291412538123694</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>143.4627920442434</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>27.94024844645424</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>14.59587156758289</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229445</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.016076112136943e-12</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855669</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856243</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>621.6037559756874</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>294.2627707717789</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799266</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556563</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556562</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341706</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.71102679412223</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584673</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084852</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075292</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341604</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491596</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403575</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.42895660043146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296109</v>
       </c>
       <c r="M42" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
